--- a/Apitest/OUTPUT/frenchMails.xlsx
+++ b/Apitest/OUTPUT/frenchMails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leger\OneDrive\Documents\UiPath\BulkQueueError\Apitest\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD076743-CD15-4280-83B8-E15B3F0E73CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC23246-7B9F-4634-93E1-4F29074A2FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="4125" yWindow="1815" windowWidth="18000" windowHeight="9810" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>emails</x:t>
   </x:si>
@@ -73,6 +73,145 @@
   </x:si>
   <x:si>
     <x:t>P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>messaging-digest-noreply@linkedin.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thierry and Surya Narayana sent new messages</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vous avez  nouveau message
+.....................................
+Surya Narayana Korivipadu (Process Automation Developer | UiPath Advanced Certified | UiPath Robot Master)
+(https://www.linkedin.com/comm/in/surya-narayana-korivipadu-871031a3?trk=eml-msg_digest-body-view_profile&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-4-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fprofile%7Evanity%2Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D)
+Lire le message: https://www.linkedin.com/comm/messaging/thread/2-ODZhNGJlZmUtNTQwNC00YTA1LWE0NTctMmFiN2E2YzhjM2QzXzAxMA==/?trk=eml-msg_digest-body-reply_to_sender&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-8-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fmessaging%2Ethread&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D
+.....................................
+Thierry Jalet (Helping organizations deliver business impact through Intelligent Process Automation)
+(https://www.linkedin.com/comm/in/thierryjalet?trk=eml-msg_digest-body-view_profile&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-7-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fprofile%7Evanity%2Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D)
+Lire le message: https://www.linkedin.com/comm/messaging/thread/2-NjljZmY2ZmQtMTdiZC00NGU5LTlkNWUtOGEzMjEzMDFmOGVhXzAxMg==/?trk=eml-msg_digest-body-reply_to_sender&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-10-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fmessaging%2Ethread&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D
+.....................................
+Modifier la fréquence : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;t=lun&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=64&amp;m=unsub&amp;ts=freq&amp;eid=3ecr6y-ko0c77so-eg&amp;loid=AQGYGT1so5fr5QAAAXkUf8-hTVQqIFtSdrpwvE1S9Ygmvjdr4Dnt2XBAn0uhZxmgTccnzSNuZQPiD4rg-P7A34S9lQy-77oqCXxBsRM
+Se désinscrire : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;t=lun&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=63&amp;m=unsub&amp;ts=unsub&amp;eid=3ecr6y-ko0c77so-eg&amp;loid=AQG8VJscI7ZFqwAAAXkUf8-hQCK5GeighNz4HdYx4ElUgcqi1ky9smkSDGNa2zL4bcu7XEuydlmwXI_frUkwa2mvCNjs3m57LSHHkeY
+Aide : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=62&amp;m=footer&amp;ts=help&amp;articleId=67
+Vous recevez des e-mails de notifications de LinkedIn.
+Cet e-mail est destiné à Franck MONGO (Développeur RPA &amp; AI _xD83E__xDD16_ | Ingénieur Nucléaire).
+Découvrez pourquoi nous précisons ceci : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;articleId=4788
+© 2021 LinkedIn Ireland Unlimited Company, Wilton Plaza, Wilton Place, Dublin 2. LinkedIn est le nom commercial déposé de LinkedIn Ireland Unlimited Company. LinkedIn et le logo de LinkedIn sont des marques déposées de LinkedIn.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notify-noreply@google.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 nouvelles offres d'emploi pour "RPA" - 1 filtre - 28 avr.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPA
+À proximité du lieu "Crépy-en-Valois"
++ 1 filtre
+Logo
+Développeur nodeJS, electronJS, C# pour Intelligent RPA Agent F/H
+SAP
+SAP France - Paris, 35 Rue d'Alsace, Levallois-Perret, France
+via Neuvoo
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h
+Informatique Cdc Groupe Caisse Des Dépôts
+Le Plessis-Trévise, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+C
+Développeur RPA UIPATH F/H
+Carriere Info
+Carriere-info.fr, 33 Rue du Four, Paris, France
+via BeBee
+Time icon 27 avr. Work icon À plein temps
+Logo
+Business Architect
+UiPath
+Paris, France
+via Talent.com
+Time icon 28 avr. Work icon À plein temps
+I
+Concepteur développeur RPA (BB-26CFE)
+Informatique CDC
+Montrouge, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+Logo
+Alternance-Ingénieur RPA (Robotic Process Information) F/H (TO-90DC4)
+Orange Business Services
+Massy, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+V
+RPA Solution Architect F/H2jooble2VISEO
+VISEO
+Boulogne-Billancourt, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+R
+RPA Consultant - Automation Anywhere2jooble2RED - The Global SAP Solutions Provider (BB-27770)
+RED - The Global SAP Solutions Provider
+Paris, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h
+Informatique Cdc Groupe Caisse Des Dépôts
+Carrières-sous-Poissy, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h (TO-E3D5B)
+Informatique Cdc Groupe Caisse Des Dépôts
+Le Vésinet, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Forward icon Découvrir les offres d'emploi
+Vous recevez cet e-mail, car vous vous êtes inscrit à un service d'alerte sur Google
+Gérer les alertes Se désabonner
+Google Inc., 1600 Amphitheatre Parkway
+Mountain View, CA 94043, États-Unis
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jeanriviere@rejoinslemouvement.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ma ferme en Roumanie : ça tourne au drame</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ça y est : j'ai enfin pris possession de la ferme que j'ai
+achetée en Roumanie pour 11 000€.
+Je pensais que tout allait bien se passer le premier jour... mais
+ça à tourné au drame !
+L'ancien propriétaire a abandonné ses chiens sur place, et a
+laissé la maison dans un état proche d'une déchèterie...
+Voici la galère que j'ai vécue en m'y installant... et les
+découvertes étranges que j'ai faites en faisant le tour du
+propriétaire...
+C'est sur YouTube :
+Ma ferme en Roumanie : ça tourne au drame 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy55b3V0dWJlLmNvbS93YXRjaD92PU9vYXJIOGNwSlZJXHUwMDI2X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 )
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy55b3V0dWJlLmNvbS93YXRjaD92PU9vYXJIOGNwSlZJXHUwMDI2X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 )
+Excellente journée,
+Jean Rivière.
+---------------------
+Qui est Jean Rivière ? 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5yZWpvaW5zbGVtb3V2ZW1lbnQuY29tL3F1aS1lc3QtamVhbi1yaXZpZXJlP19fcz1kZWxxcnFsemk0ejN5ZHV3NXZsMiJ9 )
+La chaîne YouTube 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy55b3V0dWJlLmNvbS9jaGFubmVsL1VDR0EyNXVlQUM2THVyZjlleUdSQlN3QT9zdWJfY29uZmlybWF0aW9uPTFcdTAwMjZfX3M9ZGVscXJxbHppNHozeWR1dzV2bDIifQ )
+La page Facebook ( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5mYWNlYm9vay5jb20vamVhbnJpdmllcmVtYXJrZXRpbmc_X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 ) 
+Le compte Instagram 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5pbnN0YWdyYW0uY29tL3Jlam9pbnNsZW1vdXZlbWVudC8_X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 )
+Se désinscrire ( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5nZXRkcmlwLmNvbS9zdWJzY3JpYmVycy9kZWxxcnFsemk0ejN5ZHV3NXZsMi91bnN1YnNjcmliZT9icm9hZGNhc3Q9MzMzNjQ0MjAxXHUwMDI2ZD02ajM4bXFteGJ6dDcxMjc5MThheVx1MDAyNmV4Y2x1ZGVfY2xpY2s9MVx1MDAyNl9fcz1kZWxxcnFsemk0ejN5ZHV3NXZsMiJ9 )
+REF5091 MSA - 41A route des Jeunes Carouge 1227 Suisse
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -136,7 +275,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="44">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -148,6 +287,96 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -531,90 +760,98 @@
       <x:c r="C2" s="8" t="s"/>
       <x:c r="D2" s="8" t="s"/>
       <x:c r="E2" s="8" t="s"/>
-      <x:c r="F2" s="6" t="s"/>
-      <x:c r="G2" s="6" t="s"/>
-      <x:c r="H2" s="6" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="6" t="s"/>
+      <x:c r="B3" s="6" t="s"/>
       <x:c r="C3" s="10" t="s"/>
-      <x:c r="F3" s="6" t="s"/>
-      <x:c r="G3" s="6" t="s"/>
-      <x:c r="H3" s="6" t="s"/>
+      <x:c r="D3" s="6" t="s"/>
+      <x:c r="E3" s="6" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="6" t="s">
+      <x:c r="C4" s="8" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="6" t="s"/>
+      <x:c r="B5" s="6" t="s"/>
+      <x:c r="C5" s="10" t="s"/>
+      <x:c r="D5" s="6" t="s"/>
+      <x:c r="E5" s="6" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="6" t="s">
+      <x:c r="B6" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="8" t="s">
+      <x:c r="C6" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="6" t="s">
+      <x:c r="D6" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E4" s="6" t="s">
+      <x:c r="E6" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F4" s="6" t="s"/>
-      <x:c r="G4" s="6" t="s"/>
-      <x:c r="H4" s="6" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="C5" s="10" t="s"/>
-      <x:c r="F5" s="6" t="s"/>
-      <x:c r="G5" s="6" t="s"/>
-      <x:c r="H5" s="6" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="C6" s="10" t="s"/>
-      <x:c r="D6" s="8" t="s"/>
-      <x:c r="F6" s="6" t="s"/>
-      <x:c r="G6" s="6" t="s"/>
-      <x:c r="H6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="C7" s="10" t="s"/>
-      <x:c r="F7" s="6" t="s"/>
-      <x:c r="G7" s="6" t="s"/>
-      <x:c r="H7" s="6" t="s"/>
+      <x:c r="A7" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C7" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E7" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="C8" s="10" t="s"/>
-      <x:c r="F8" s="6" t="s"/>
-      <x:c r="G8" s="6" t="s"/>
-      <x:c r="H8" s="6" t="s"/>
+      <x:c r="A8" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="6" t="s"/>
-      <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="10" t="s"/>
-      <x:c r="D9" s="6" t="s"/>
-      <x:c r="E9" s="6" t="s"/>
-      <x:c r="F9" s="6" t="s"/>
-      <x:c r="G9" s="6" t="s"/>
-      <x:c r="H9" s="6" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="6" t="s"/>
-      <x:c r="B10" s="6" t="s"/>
-      <x:c r="C10" s="10" t="s"/>
-      <x:c r="D10" s="8" t="s"/>
-      <x:c r="E10" s="6" t="s"/>
-      <x:c r="F10" s="6" t="s"/>
-      <x:c r="G10" s="6" t="s"/>
-      <x:c r="H10" s="6" t="s"/>
+      <x:c r="A10" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B10" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C10" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:8" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="6" t="s"/>
-      <x:c r="B11" s="6" t="s"/>
       <x:c r="C11" s="10" t="s"/>
       <x:c r="D11" s="8" t="s"/>
-      <x:c r="E11" s="6" t="s"/>
-      <x:c r="F11" s="6" t="s"/>
-      <x:c r="G11" s="6" t="s"/>
-      <x:c r="H11" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
